--- a/results/test_Samoylov/CONSTANTS_excel.xlsx
+++ b/results/test_Samoylov/CONSTANTS_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\CryoGrid2020_10\results\test_CG2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kant\geo-geohyd-u1\sebaswe\work\CryoGrid2020_25\results\peat_suossjavri2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>CONST</t>
   </si>
@@ -231,6 +231,48 @@
   </si>
   <si>
     <t>residual_wc_silt</t>
+  </si>
+  <si>
+    <t>rho_m</t>
+  </si>
+  <si>
+    <t>rho_o</t>
+  </si>
+  <si>
+    <t>density quartz</t>
+  </si>
+  <si>
+    <t>not sure</t>
+  </si>
+  <si>
+    <t>alpha_peat</t>
+  </si>
+  <si>
+    <t>n_peat</t>
+  </si>
+  <si>
+    <t>residual_wc_peat</t>
+  </si>
+  <si>
+    <t>from Hydraulic properties of fen peat soils in Poland, Gnatowski 2010</t>
+  </si>
+  <si>
+    <t>alpha_water</t>
+  </si>
+  <si>
+    <t>n_water</t>
+  </si>
+  <si>
+    <t>residual_wc_water</t>
+  </si>
+  <si>
+    <t>alpha_clay</t>
+  </si>
+  <si>
+    <t>n_clay</t>
+  </si>
+  <si>
+    <t>residual_wc_clay</t>
   </si>
 </sst>
 </file>
@@ -269,10 +311,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,330 +681,427 @@
         <v>52</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>2650</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>2650</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B12" s="1">
         <v>334000000</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2834100</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1">
-        <v>4200000</v>
+        <v>2834100</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1900000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>2500000</v>
+        <v>4200000</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>2000000</v>
+        <v>1900000</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2500000</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2000000</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>0.25</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5.6699999999999998E-8</v>
+        <v>11</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25">
-        <v>8.3144589999999994</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26">
-        <v>1005</v>
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5.6699999999999998E-8</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>8.3144589999999994</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>1005</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>0.4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <v>273.14999999999998</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>39</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>9.81</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>9.81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>989.63</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>17</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>1.5</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>36</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37">
-        <v>0.65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="B38" s="3">
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39">
-        <v>1.7</v>
+        <v>63</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.65</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2.31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>68</v>
       </c>
-      <c r="B41">
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="3">
         <v>0</v>
       </c>
     </row>
